--- a/resources/CoreAPI.xlsx
+++ b/resources/CoreAPI.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="CoreAdvancesNotesDynamicInq" sheetId="1" r:id="rId1"/>
+    <sheet name="CoreAdvancesNotes_GraphQL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -39,18 +39,9 @@
     <t>ExpectedStatus</t>
   </si>
   <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>client_secret</t>
-  </si>
-  <si>
     <t>scope</t>
   </si>
   <si>
-    <t>grant_type</t>
-  </si>
-  <si>
     <t>tokenURL</t>
   </si>
   <si>
@@ -112,6 +103,60 @@
   </si>
   <si>
     <t>https://websso</t>
+  </si>
+  <si>
+    <t>No Data found</t>
+  </si>
+  <si>
+    <t>UnAuthorized</t>
+  </si>
+  <si>
+    <t>Unknown argumnet</t>
+  </si>
+  <si>
+    <t>Post body missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HappyPath-Comapre actual and expected Resonse </t>
+  </si>
+  <si>
+    <t>HappyPath-display attribute alue</t>
+  </si>
+  <si>
+    <t>HappyPath-Verify response error for inalid input data</t>
+  </si>
+  <si>
+    <t>HappyPath-Verify response error for inalid token</t>
+  </si>
+  <si>
+    <t>HappyPath-Verify error for inalid query parameter</t>
+  </si>
+  <si>
+    <t>HappyPath-Verifyerror for Blank token</t>
+  </si>
+  <si>
+    <t>HappyPath-Verify error for expired token</t>
+  </si>
+  <si>
+    <t>HappyPath-Verify error for empty payload</t>
+  </si>
+  <si>
+    <t>HappyPath-Verify error for inalid host url</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>clientSecret</t>
+  </si>
+  <si>
+    <t>grantType</t>
   </si>
 </sst>
 </file>
@@ -488,12 +533,12 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -522,101 +567,239 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CoreAPI.xlsx
+++ b/resources/CoreAPI.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CoreAdvancesNotes_GraphQL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CoreCLSSnowFlake" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
   <si>
     <t>TCID</t>
   </si>
@@ -157,6 +157,33 @@
   </si>
   <si>
     <t>grantType</t>
+  </si>
+  <si>
+    <t>TargetURL</t>
+  </si>
+  <si>
+    <t>acctNo</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>dealType</t>
+  </si>
+  <si>
+    <t>12/1/2020</t>
+  </si>
+  <si>
+    <t>12/31/2020</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -532,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,12 +839,385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
